--- a/data/raw/FORESTRYdata/2023/林業署獼猴調查樣區列表.xlsx
+++ b/data/raw/FORESTRYdata/2023/林業署獼猴調查樣區列表.xlsx
@@ -420,9 +420,6 @@
     <t>MB-C11-09</t>
   </si>
   <si>
-    <t>MB-C11-10</t>
-  </si>
-  <si>
     <t>MB-C11-11</t>
   </si>
   <si>
@@ -1311,6 +1308,10 @@
   </si>
   <si>
     <t>Station</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA-C11-10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1654,21 +1655,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C386"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" t="s">
         <v>428</v>
       </c>
-      <c r="B1" t="s">
-        <v>429</v>
-      </c>
       <c r="C1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2988,7 +2989,7 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>133</v>
+        <v>429</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -2999,7 +3000,7 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -3010,7 +3011,7 @@
         <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -3021,7 +3022,7 @@
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -3029,10 +3030,10 @@
         <v>108</v>
       </c>
       <c r="B125" t="s">
+        <v>136</v>
+      </c>
+      <c r="C125" t="s">
         <v>137</v>
-      </c>
-      <c r="C125" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -3040,10 +3041,10 @@
         <v>108</v>
       </c>
       <c r="B126" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C126" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -3051,10 +3052,10 @@
         <v>108</v>
       </c>
       <c r="B127" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C127" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -3062,10 +3063,10 @@
         <v>108</v>
       </c>
       <c r="B128" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C128" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -3073,10 +3074,10 @@
         <v>108</v>
       </c>
       <c r="B129" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C129" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -3084,10 +3085,10 @@
         <v>108</v>
       </c>
       <c r="B130" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -3095,10 +3096,10 @@
         <v>108</v>
       </c>
       <c r="B131" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C131" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -3106,10 +3107,10 @@
         <v>108</v>
       </c>
       <c r="B132" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C132" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -3117,10 +3118,10 @@
         <v>108</v>
       </c>
       <c r="B133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -3128,10 +3129,10 @@
         <v>108</v>
       </c>
       <c r="B134" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -3139,10 +3140,10 @@
         <v>108</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -3150,10 +3151,10 @@
         <v>108</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C136" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -3161,10 +3162,10 @@
         <v>108</v>
       </c>
       <c r="B137" t="s">
+        <v>149</v>
+      </c>
+      <c r="C137" t="s">
         <v>150</v>
-      </c>
-      <c r="C137" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -3172,10 +3173,10 @@
         <v>108</v>
       </c>
       <c r="B138" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C138" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -3183,10 +3184,10 @@
         <v>108</v>
       </c>
       <c r="B139" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C139" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -3194,10 +3195,10 @@
         <v>108</v>
       </c>
       <c r="B140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C140" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -3205,10 +3206,10 @@
         <v>108</v>
       </c>
       <c r="B141" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C141" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -3216,10 +3217,10 @@
         <v>108</v>
       </c>
       <c r="B142" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C142" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -3227,10 +3228,10 @@
         <v>108</v>
       </c>
       <c r="B143" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C143" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -3238,10 +3239,10 @@
         <v>108</v>
       </c>
       <c r="B144" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C144" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -3249,10 +3250,10 @@
         <v>108</v>
       </c>
       <c r="B145" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C145" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -3260,10 +3261,10 @@
         <v>108</v>
       </c>
       <c r="B146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -3271,10 +3272,10 @@
         <v>108</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -3282,2628 +3283,2628 @@
         <v>108</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>162</v>
+      </c>
+      <c r="B149" t="s">
         <v>163</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>164</v>
-      </c>
-      <c r="C149" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>162</v>
+      </c>
+      <c r="B150" t="s">
         <v>163</v>
       </c>
-      <c r="B150" t="s">
-        <v>164</v>
-      </c>
       <c r="C150" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>162</v>
+      </c>
+      <c r="B151" t="s">
         <v>163</v>
       </c>
-      <c r="B151" t="s">
-        <v>164</v>
-      </c>
       <c r="C151" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>162</v>
+      </c>
+      <c r="B152" t="s">
         <v>163</v>
       </c>
-      <c r="B152" t="s">
-        <v>164</v>
-      </c>
       <c r="C152" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>162</v>
+      </c>
+      <c r="B153" t="s">
         <v>163</v>
       </c>
-      <c r="B153" t="s">
-        <v>164</v>
-      </c>
       <c r="C153" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>162</v>
+      </c>
+      <c r="B154" t="s">
         <v>163</v>
       </c>
-      <c r="B154" t="s">
-        <v>164</v>
-      </c>
       <c r="C154" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
+        <v>162</v>
+      </c>
+      <c r="B155" t="s">
         <v>163</v>
       </c>
-      <c r="B155" t="s">
-        <v>164</v>
-      </c>
       <c r="C155" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156" t="s">
         <v>163</v>
       </c>
-      <c r="B156" t="s">
-        <v>164</v>
-      </c>
       <c r="C156" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>162</v>
+      </c>
+      <c r="B157" t="s">
         <v>163</v>
       </c>
-      <c r="B157" t="s">
-        <v>164</v>
-      </c>
       <c r="C157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158" t="s">
         <v>163</v>
       </c>
-      <c r="B158" t="s">
-        <v>164</v>
-      </c>
       <c r="C158" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B159" t="s">
+        <v>174</v>
+      </c>
+      <c r="C159" t="s">
         <v>175</v>
-      </c>
-      <c r="C159" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C160" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C161" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C162" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C163" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C164" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C165" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B166" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C166" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B167" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C167" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B168" t="s">
+        <v>184</v>
+      </c>
+      <c r="C168" t="s">
         <v>185</v>
-      </c>
-      <c r="C168" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B169" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C169" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B170" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C170" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B171" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C171" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B172" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C172" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B173" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C173" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B174" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C174" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B175" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C175" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B176" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C176" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B177" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C177" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B178" t="s">
+        <v>195</v>
+      </c>
+      <c r="C178" t="s">
         <v>196</v>
-      </c>
-      <c r="C178" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B179" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C179" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B180" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C180" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B181" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C181" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B182" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C182" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B183" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C183" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B184" t="s">
+        <v>202</v>
+      </c>
+      <c r="C184" t="s">
         <v>203</v>
-      </c>
-      <c r="C184" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B185" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C185" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B186" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C186" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B187" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C187" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B188" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C188" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B189" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C189" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B190" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C190" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B191" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C191" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B192" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C192" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B193" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C193" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
+        <v>213</v>
+      </c>
+      <c r="B194" t="s">
         <v>214</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>215</v>
-      </c>
-      <c r="C194" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
+        <v>213</v>
+      </c>
+      <c r="B195" t="s">
         <v>214</v>
       </c>
-      <c r="B195" t="s">
-        <v>215</v>
-      </c>
       <c r="C195" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
+        <v>213</v>
+      </c>
+      <c r="B196" t="s">
         <v>214</v>
       </c>
-      <c r="B196" t="s">
-        <v>215</v>
-      </c>
       <c r="C196" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
+        <v>213</v>
+      </c>
+      <c r="B197" t="s">
         <v>214</v>
       </c>
-      <c r="B197" t="s">
-        <v>215</v>
-      </c>
       <c r="C197" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
+        <v>213</v>
+      </c>
+      <c r="B198" t="s">
         <v>214</v>
       </c>
-      <c r="B198" t="s">
-        <v>215</v>
-      </c>
       <c r="C198" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
+        <v>213</v>
+      </c>
+      <c r="B199" t="s">
         <v>214</v>
       </c>
-      <c r="B199" t="s">
-        <v>215</v>
-      </c>
       <c r="C199" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
+        <v>213</v>
+      </c>
+      <c r="B200" t="s">
         <v>214</v>
       </c>
-      <c r="B200" t="s">
-        <v>215</v>
-      </c>
       <c r="C200" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
+        <v>213</v>
+      </c>
+      <c r="B201" t="s">
         <v>214</v>
       </c>
-      <c r="B201" t="s">
-        <v>215</v>
-      </c>
       <c r="C201" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
+        <v>213</v>
+      </c>
+      <c r="B202" t="s">
         <v>214</v>
       </c>
-      <c r="B202" t="s">
-        <v>215</v>
-      </c>
       <c r="C202" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
+        <v>213</v>
+      </c>
+      <c r="B203" t="s">
         <v>214</v>
       </c>
-      <c r="B203" t="s">
-        <v>215</v>
-      </c>
       <c r="C203" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
+        <v>213</v>
+      </c>
+      <c r="B204" t="s">
         <v>214</v>
       </c>
-      <c r="B204" t="s">
-        <v>215</v>
-      </c>
       <c r="C204" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
+        <v>213</v>
+      </c>
+      <c r="B205" t="s">
         <v>214</v>
       </c>
-      <c r="B205" t="s">
-        <v>215</v>
-      </c>
       <c r="C205" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
+        <v>213</v>
+      </c>
+      <c r="B206" t="s">
         <v>214</v>
       </c>
-      <c r="B206" t="s">
-        <v>215</v>
-      </c>
       <c r="C206" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B207" t="s">
+        <v>228</v>
+      </c>
+      <c r="C207" t="s">
         <v>229</v>
-      </c>
-      <c r="C207" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B208" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C208" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B209" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C209" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C210" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C211" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B212" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C212" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C213" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C214" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C215" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B216" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C216" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B217" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C217" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B218" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C218" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B219" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C219" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B220" t="s">
+        <v>242</v>
+      </c>
+      <c r="C220" t="s">
         <v>243</v>
-      </c>
-      <c r="C220" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B221" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C221" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B222" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C222" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B223" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C223" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B224" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C224" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B225" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C225" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B226" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C226" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B227" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C227" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B228" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C228" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C229" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B230" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C230" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B231" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C231" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C232" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B233" t="s">
+        <v>256</v>
+      </c>
+      <c r="C233" t="s">
         <v>257</v>
-      </c>
-      <c r="C233" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B234" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C234" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B235" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C235" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B236" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C236" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B237" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C237" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B238" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C238" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B239" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C239" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B240" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C240" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B241" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C241" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B242" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C242" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B243" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C243" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B244" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C244" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B245" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C245" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
+        <v>270</v>
+      </c>
+      <c r="B246" t="s">
         <v>271</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" t="s">
         <v>272</v>
-      </c>
-      <c r="C246" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
+        <v>270</v>
+      </c>
+      <c r="B247" t="s">
         <v>271</v>
       </c>
-      <c r="B247" t="s">
-        <v>272</v>
-      </c>
       <c r="C247" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
+        <v>270</v>
+      </c>
+      <c r="B248" t="s">
         <v>271</v>
       </c>
-      <c r="B248" t="s">
-        <v>272</v>
-      </c>
       <c r="C248" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
+        <v>270</v>
+      </c>
+      <c r="B249" t="s">
         <v>271</v>
       </c>
-      <c r="B249" t="s">
-        <v>272</v>
-      </c>
       <c r="C249" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
+        <v>270</v>
+      </c>
+      <c r="B250" t="s">
         <v>271</v>
       </c>
-      <c r="B250" t="s">
-        <v>272</v>
-      </c>
       <c r="C250" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
+        <v>270</v>
+      </c>
+      <c r="B251" t="s">
         <v>271</v>
       </c>
-      <c r="B251" t="s">
-        <v>272</v>
-      </c>
       <c r="C251" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
+        <v>270</v>
+      </c>
+      <c r="B252" t="s">
         <v>271</v>
       </c>
-      <c r="B252" t="s">
-        <v>272</v>
-      </c>
       <c r="C252" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
+        <v>270</v>
+      </c>
+      <c r="B253" t="s">
         <v>271</v>
       </c>
-      <c r="B253" t="s">
-        <v>272</v>
-      </c>
       <c r="C253" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
+        <v>270</v>
+      </c>
+      <c r="B254" t="s">
         <v>271</v>
       </c>
-      <c r="B254" t="s">
-        <v>272</v>
-      </c>
       <c r="C254" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
+        <v>270</v>
+      </c>
+      <c r="B255" t="s">
         <v>271</v>
       </c>
-      <c r="B255" t="s">
-        <v>272</v>
-      </c>
       <c r="C255" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B256" t="s">
+        <v>282</v>
+      </c>
+      <c r="C256" t="s">
         <v>283</v>
-      </c>
-      <c r="C256" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B257" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C257" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B258" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C258" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B259" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C259" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B260" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C260" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B261" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C261" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B262" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C262" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B263" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C263" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B264" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C264" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B265" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C265" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B266" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C266" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C267" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C268" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B269" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C269" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B270" t="s">
+        <v>297</v>
+      </c>
+      <c r="C270" t="s">
         <v>298</v>
-      </c>
-      <c r="C270" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C271" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C272" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B273" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C273" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B274" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C274" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B275" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C275" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B276" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C276" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B277" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C277" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B278" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C278" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B279" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C279" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B280" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C280" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B281" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C281" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B282" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C282" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B283" t="s">
+        <v>311</v>
+      </c>
+      <c r="C283" t="s">
         <v>312</v>
-      </c>
-      <c r="C283" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B284" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C284" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B285" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C285" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B286" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C286" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B287" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C287" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B288" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C288" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B289" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C289" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B290" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C290" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B291" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C291" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B292" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C292" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B293" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C293" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
+        <v>323</v>
+      </c>
+      <c r="B294" t="s">
         <v>324</v>
       </c>
-      <c r="B294" t="s">
+      <c r="C294" t="s">
         <v>325</v>
-      </c>
-      <c r="C294" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
+        <v>323</v>
+      </c>
+      <c r="B295" t="s">
         <v>324</v>
       </c>
-      <c r="B295" t="s">
-        <v>325</v>
-      </c>
       <c r="C295" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
+        <v>323</v>
+      </c>
+      <c r="B296" t="s">
         <v>324</v>
       </c>
-      <c r="B296" t="s">
-        <v>325</v>
-      </c>
       <c r="C296" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
+        <v>323</v>
+      </c>
+      <c r="B297" t="s">
         <v>324</v>
       </c>
-      <c r="B297" t="s">
-        <v>325</v>
-      </c>
       <c r="C297" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
+        <v>323</v>
+      </c>
+      <c r="B298" t="s">
         <v>324</v>
       </c>
-      <c r="B298" t="s">
-        <v>325</v>
-      </c>
       <c r="C298" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
+        <v>323</v>
+      </c>
+      <c r="B299" t="s">
         <v>324</v>
       </c>
-      <c r="B299" t="s">
-        <v>325</v>
-      </c>
       <c r="C299" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
+        <v>323</v>
+      </c>
+      <c r="B300" t="s">
         <v>324</v>
       </c>
-      <c r="B300" t="s">
-        <v>325</v>
-      </c>
       <c r="C300" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
+        <v>323</v>
+      </c>
+      <c r="B301" t="s">
         <v>324</v>
       </c>
-      <c r="B301" t="s">
-        <v>325</v>
-      </c>
       <c r="C301" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B302" t="s">
+        <v>333</v>
+      </c>
+      <c r="C302" t="s">
         <v>334</v>
-      </c>
-      <c r="C302" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B303" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C303" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B304" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C304" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B305" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C305" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B306" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C306" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B307" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C307" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B308" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C308" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B309" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C309" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B310" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C310" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B311" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C311" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B312" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C312" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B313" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C313" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B314" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C314" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B315" t="s">
+        <v>347</v>
+      </c>
+      <c r="C315" t="s">
         <v>348</v>
-      </c>
-      <c r="C315" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B316" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C316" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B317" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C317" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B318" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C318" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B319" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C319" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C320" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C321" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B322" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C322" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B323" t="s">
+        <v>356</v>
+      </c>
+      <c r="C323" t="s">
         <v>357</v>
-      </c>
-      <c r="C323" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C324" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C325" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B326" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C326" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B327" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C327" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B328" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C328" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B329" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C329" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B330" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C330" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B331" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C331" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B332" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C332" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B333" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C333" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B334" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C334" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B335" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C335" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B336" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C336" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
+        <v>371</v>
+      </c>
+      <c r="B337" t="s">
         <v>372</v>
       </c>
-      <c r="B337" t="s">
+      <c r="C337" t="s">
         <v>373</v>
-      </c>
-      <c r="C337" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
+        <v>371</v>
+      </c>
+      <c r="B338" t="s">
         <v>372</v>
       </c>
-      <c r="B338" t="s">
-        <v>373</v>
-      </c>
       <c r="C338" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
+        <v>371</v>
+      </c>
+      <c r="B339" t="s">
         <v>372</v>
       </c>
-      <c r="B339" t="s">
-        <v>373</v>
-      </c>
       <c r="C339" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
+        <v>371</v>
+      </c>
+      <c r="B340" t="s">
         <v>372</v>
       </c>
-      <c r="B340" t="s">
-        <v>373</v>
-      </c>
       <c r="C340" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
+        <v>371</v>
+      </c>
+      <c r="B341" t="s">
         <v>372</v>
       </c>
-      <c r="B341" t="s">
-        <v>373</v>
-      </c>
       <c r="C341" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
+        <v>371</v>
+      </c>
+      <c r="B342" t="s">
         <v>372</v>
       </c>
-      <c r="B342" t="s">
-        <v>373</v>
-      </c>
       <c r="C342" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
+        <v>371</v>
+      </c>
+      <c r="B343" t="s">
         <v>372</v>
       </c>
-      <c r="B343" t="s">
-        <v>373</v>
-      </c>
       <c r="C343" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
+        <v>371</v>
+      </c>
+      <c r="B344" t="s">
         <v>372</v>
       </c>
-      <c r="B344" t="s">
-        <v>373</v>
-      </c>
       <c r="C344" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
+        <v>371</v>
+      </c>
+      <c r="B345" t="s">
         <v>372</v>
       </c>
-      <c r="B345" t="s">
-        <v>373</v>
-      </c>
       <c r="C345" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
+        <v>371</v>
+      </c>
+      <c r="B346" t="s">
         <v>372</v>
       </c>
-      <c r="B346" t="s">
-        <v>373</v>
-      </c>
       <c r="C346" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
+        <v>371</v>
+      </c>
+      <c r="B347" t="s">
         <v>372</v>
       </c>
-      <c r="B347" t="s">
-        <v>373</v>
-      </c>
       <c r="C347" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
+        <v>371</v>
+      </c>
+      <c r="B348" t="s">
         <v>372</v>
       </c>
-      <c r="B348" t="s">
-        <v>373</v>
-      </c>
       <c r="C348" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
+        <v>371</v>
+      </c>
+      <c r="B349" t="s">
         <v>372</v>
       </c>
-      <c r="B349" t="s">
-        <v>373</v>
-      </c>
       <c r="C349" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B350" t="s">
+        <v>386</v>
+      </c>
+      <c r="C350" t="s">
         <v>387</v>
-      </c>
-      <c r="C350" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B351" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C351" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B352" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C352" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B353" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C353" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B354" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C354" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B355" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C355" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B356" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C356" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B357" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C357" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B358" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C358" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B359" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C359" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B360" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C360" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B361" t="s">
+        <v>398</v>
+      </c>
+      <c r="C361" t="s">
         <v>399</v>
-      </c>
-      <c r="C361" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B362" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C362" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B363" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C363" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B364" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C364" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B365" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C365" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B366" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C366" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B367" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C367" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C368" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B369" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C369" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B370" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C370" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C371" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C372" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B373" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C373" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B374" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C374" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B375" t="s">
+        <v>413</v>
+      </c>
+      <c r="C375" t="s">
         <v>414</v>
-      </c>
-      <c r="C375" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B376" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C376" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B377" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C377" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B378" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C378" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B379" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C379" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B380" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C380" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B381" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C381" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B382" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C382" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B383" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C383" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B384" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C384" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B385" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C385" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B386" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C386" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/FORESTRYdata/2023/林業署獼猴調查樣區列表.xlsx
+++ b/data/raw/FORESTRYdata/2023/林業署獼猴調查樣區列表.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$C$386</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="434">
   <si>
     <t>宜蘭</t>
   </si>
@@ -1312,6 +1315,20 @@
   </si>
   <si>
     <t>MA-C11-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三峽</t>
+  </si>
+  <si>
+    <t>關子嶺</t>
+  </si>
+  <si>
+    <t>觸口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關子嶺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1319,7 +1336,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1329,6 +1346,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
@@ -1355,8 +1386,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1655,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197:B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2651,78 +2684,78 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>48</v>
       </c>
-      <c r="B91" t="s">
-        <v>92</v>
+      <c r="B91" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="C91" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>48</v>
       </c>
-      <c r="B92" t="s">
-        <v>92</v>
+      <c r="B92" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="C92" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>48</v>
       </c>
-      <c r="B93" t="s">
-        <v>92</v>
+      <c r="B93" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="C93" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>48</v>
       </c>
-      <c r="B94" t="s">
-        <v>92</v>
+      <c r="B94" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="C94" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>48</v>
       </c>
-      <c r="B95" t="s">
-        <v>92</v>
+      <c r="B95" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="C95" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>48</v>
       </c>
-      <c r="B96" t="s">
-        <v>92</v>
+      <c r="B96" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="C96" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>48</v>
       </c>
-      <c r="B97" t="s">
-        <v>92</v>
+      <c r="B97" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="C97" t="s">
         <v>106</v>
@@ -3877,7 +3910,7 @@
         <v>213</v>
       </c>
       <c r="B202" t="s">
-        <v>214</v>
+        <v>431</v>
       </c>
       <c r="C202" t="s">
         <v>223</v>
@@ -4158,12 +4191,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>213</v>
       </c>
-      <c r="B228" t="s">
-        <v>242</v>
+      <c r="B228" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="C228" t="s">
         <v>251</v>
@@ -4273,7 +4306,7 @@
         <v>213</v>
       </c>
       <c r="B238" t="s">
-        <v>256</v>
+        <v>431</v>
       </c>
       <c r="C238" t="s">
         <v>262</v>
@@ -4284,7 +4317,7 @@
         <v>213</v>
       </c>
       <c r="B239" t="s">
-        <v>256</v>
+        <v>431</v>
       </c>
       <c r="C239" t="s">
         <v>263</v>
@@ -4295,7 +4328,7 @@
         <v>213</v>
       </c>
       <c r="B240" t="s">
-        <v>256</v>
+        <v>433</v>
       </c>
       <c r="C240" t="s">
         <v>264</v>
@@ -4306,7 +4339,7 @@
         <v>213</v>
       </c>
       <c r="B241" t="s">
-        <v>256</v>
+        <v>431</v>
       </c>
       <c r="C241" t="s">
         <v>265</v>
@@ -4317,7 +4350,7 @@
         <v>213</v>
       </c>
       <c r="B242" t="s">
-        <v>256</v>
+        <v>431</v>
       </c>
       <c r="C242" t="s">
         <v>266</v>
@@ -4339,7 +4372,7 @@
         <v>213</v>
       </c>
       <c r="B244" t="s">
-        <v>256</v>
+        <v>431</v>
       </c>
       <c r="C244" t="s">
         <v>268</v>
@@ -4350,7 +4383,7 @@
         <v>213</v>
       </c>
       <c r="B245" t="s">
-        <v>256</v>
+        <v>431</v>
       </c>
       <c r="C245" t="s">
         <v>269</v>
@@ -5908,6 +5941,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C386"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
